--- a/templates/recibidos_salida.xlsx
+++ b/templates/recibidos_salida.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,100 +503,95 @@
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Tipo Doc.</t>
+          <t>CUIT</t>
         </is>
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>CUIT</t>
+          <t>Domicilio</t>
         </is>
       </c>
       <c r="I1" s="4" t="inlineStr">
         <is>
-          <t>Domicilio</t>
+          <t>C.P.</t>
         </is>
       </c>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>C.P.</t>
+          <t>Pcia</t>
         </is>
       </c>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>Pcia</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
           <t>Cond Fisc</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>Moneda</t>
+        </is>
+      </c>
       <c r="N1" s="4" t="inlineStr">
         <is>
-          <t>Moneda</t>
+          <t>Tipo de cambio</t>
         </is>
       </c>
       <c r="O1" s="4" t="inlineStr">
         <is>
-          <t>Tipo de cambio</t>
+          <t>Cód. Neto</t>
         </is>
       </c>
       <c r="P1" s="4" t="inlineStr">
         <is>
-          <t>Cód. Neto</t>
+          <t>Neto Gravado</t>
         </is>
       </c>
       <c r="Q1" s="4" t="inlineStr">
         <is>
-          <t>Neto Gravado</t>
+          <t>Alíc.</t>
         </is>
       </c>
       <c r="R1" s="4" t="inlineStr">
         <is>
-          <t>Alíc.</t>
+          <t>IVA Liquidado</t>
         </is>
       </c>
       <c r="S1" s="4" t="inlineStr">
         <is>
-          <t>IVA Liquidado</t>
+          <t>IVA Débito</t>
         </is>
       </c>
       <c r="T1" s="4" t="inlineStr">
         <is>
-          <t>IVA Débito</t>
+          <t>Cód. NG/EX</t>
         </is>
       </c>
       <c r="U1" s="4" t="inlineStr">
         <is>
-          <t>Cód. NG/EX</t>
+          <t>Conceptos NG/EX</t>
         </is>
       </c>
       <c r="V1" s="4" t="inlineStr">
         <is>
-          <t>Conceptos NG/EX</t>
+          <t>Cód. P/R</t>
         </is>
       </c>
       <c r="W1" s="4" t="inlineStr">
         <is>
-          <t>Cód. P/R</t>
+          <t>Perc./Ret.</t>
         </is>
       </c>
       <c r="X1" s="4" t="inlineStr">
         <is>
-          <t>Perc./Ret.</t>
+          <t>Pcia P/R</t>
         </is>
       </c>
       <c r="Y1" s="4" t="inlineStr">
-        <is>
-          <t>Pcia P/R</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -629,46 +624,43 @@
           <t>FELUDERO MAURICIO LEANDRO</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>96</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00-30173258-0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="N2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="P2" s="6" t="n">
         <v>4545454.52</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="Q2" s="7" t="n">
         <v>21</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>954545.45</v>
       </c>
       <c r="S2" s="6" t="n">
         <v>954545.45</v>
       </c>
-      <c r="T2" s="6" t="n">
-        <v>954545.45</v>
-      </c>
-      <c r="V2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6" t="n">
+      <c r="U2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6" t="n">
         <v>5499999.97</v>
       </c>
     </row>
@@ -699,46 +691,43 @@
           <t>NEIRA GUILLERMO SATURNINO</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>96</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>00-29083254-0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="N3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="n">
+      <c r="P3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>317150</v>
       </c>
-      <c r="X3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6" t="n">
+      <c r="W3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6" t="n">
         <v>317150</v>
       </c>
     </row>
@@ -769,46 +758,43 @@
           <t>QUIROGA POSITINI MARTIN ALFREDO</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>96</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00-31510936-0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="N4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="n">
+      <c r="P4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>325278</v>
       </c>
-      <c r="X4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6" t="n">
+      <c r="W4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6" t="n">
         <v>325278</v>
       </c>
     </row>
@@ -839,46 +825,43 @@
           <t>MANZANO CARLOS ALFREDO</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>96</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00-13666372-0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="n">
+      <c r="P5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>397650</v>
       </c>
-      <c r="X5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6" t="n">
+      <c r="W5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6" t="n">
         <v>397650</v>
       </c>
     </row>
@@ -909,46 +892,43 @@
           <t>CORIA BUSTOS JULIETA ISABEL</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>96</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00-39955559-0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="N6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7" t="n">
+      <c r="P6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>443106</v>
       </c>
-      <c r="X6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6" t="n">
+      <c r="W6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="n">
         <v>443106</v>
       </c>
     </row>
@@ -979,46 +959,43 @@
           <t>GOMEZ CINTHYA NATALI</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>96</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>00-36032037-0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="N7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="n">
+      <c r="P7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6" t="n">
+      <c r="U7" s="6" t="n">
         <v>325278</v>
       </c>
-      <c r="X7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6" t="n">
+      <c r="W7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="n">
         <v>325278</v>
       </c>
     </row>
@@ -1049,46 +1026,43 @@
           <t>BOTTERO FACUNDO ADRIAN</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>96</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>00-37872089-0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="N8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="P8" s="6" t="n">
         <v>7438016.52</v>
       </c>
-      <c r="R8" s="7" t="n">
+      <c r="Q8" s="7" t="n">
         <v>21</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>1561983.47</v>
       </c>
       <c r="S8" s="6" t="n">
         <v>1561983.47</v>
       </c>
-      <c r="T8" s="6" t="n">
-        <v>1561983.47</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6" t="n">
+      <c r="U8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="n">
         <v>8999999.99</v>
       </c>
     </row>
@@ -1119,46 +1093,43 @@
           <t>SANAMI SRL</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>80</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>30712074597</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="6" t="n">
         <v>14979000</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="7" t="n">
         <v>21</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>3145590</v>
       </c>
       <c r="S9" s="6" t="n">
         <v>3145590</v>
       </c>
-      <c r="T9" s="6" t="n">
-        <v>3145590</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6" t="n">
+      <c r="U9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6" t="n">
         <v>18124590</v>
       </c>
     </row>
@@ -1189,46 +1160,43 @@
           <t>BOLIS GUSTAVO DANIEL</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>96</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>00-25894021-0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="N10" s="6" t="n">
         <v>1403</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="P10" s="6" t="n">
         <v>15073565.43</v>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="Q10" s="7" t="n">
         <v>21</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>3165448.6</v>
       </c>
       <c r="S10" s="6" t="n">
         <v>3165448.6</v>
       </c>
-      <c r="T10" s="6" t="n">
-        <v>3165448.6</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6" t="n">
+      <c r="U10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6" t="n">
         <v>18239014.03</v>
       </c>
     </row>
@@ -1259,46 +1227,43 @@
           <t>BUSTINZA GOMA S.A.</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>80</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>33708319479</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="N11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="P11" s="6" t="n">
         <v>426500</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="Q11" s="7" t="n">
         <v>21</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>89565</v>
       </c>
       <c r="S11" s="6" t="n">
         <v>89565</v>
       </c>
-      <c r="T11" s="6" t="n">
-        <v>89565</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6" t="n">
+      <c r="U11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6" t="n">
         <v>516065</v>
       </c>
     </row>

--- a/templates/recibidos_salida.xlsx
+++ b/templates/recibidos_salida.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,100 +498,105 @@
       </c>
       <c r="F1" s="4" t="inlineStr">
         <is>
+          <t>Movimiento</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
           <t>Razón Social o Denominación Cliente</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>CUIT</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Domicilio</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>C.P.</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>Pcia</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Cond Fisc</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>Tipo de cambio</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>Cód. Neto</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>Neto Gravado</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>Alíc.</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>IVA Liquidado</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>IVA Débito</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>Cód. NG/EX</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>Conceptos NG/EX</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>Cód. P/R</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>Perc./Ret.</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>Pcia P/R</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Z1" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -619,48 +624,48 @@
       <c r="E2" t="n">
         <v>793</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>FELUDERO MAURICIO LEANDRO</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>00-30173258-0</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="O2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>4545454.52</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="R2" s="7" t="n">
         <v>21</v>
-      </c>
-      <c r="R2" s="6" t="n">
-        <v>954545.45</v>
       </c>
       <c r="S2" s="6" t="n">
         <v>954545.45</v>
       </c>
-      <c r="U2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6" t="n">
+      <c r="T2" s="6" t="n">
+        <v>954545.45</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6" t="n">
         <v>5499999.97</v>
       </c>
     </row>
@@ -686,48 +691,48 @@
       <c r="E3" t="n">
         <v>797</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NEIRA GUILLERMO SATURNINO</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>00-29083254-0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="O3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6" t="n">
+      <c r="Q3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="T3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6" t="n">
         <v>317150</v>
       </c>
-      <c r="W3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6" t="n">
+      <c r="X3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6" t="n">
         <v>317150</v>
       </c>
     </row>
@@ -753,48 +758,48 @@
       <c r="E4" t="n">
         <v>798</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>QUIROGA POSITINI MARTIN ALFREDO</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>00-31510936-0</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="O4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="n">
+      <c r="Q4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="T4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6" t="n">
         <v>325278</v>
       </c>
-      <c r="W4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6" t="n">
+      <c r="X4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6" t="n">
         <v>325278</v>
       </c>
     </row>
@@ -820,48 +825,48 @@
       <c r="E5" t="n">
         <v>794</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>MANZANO CARLOS ALFREDO</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>00-13666372-0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="O5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="T5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6" t="n">
         <v>397650</v>
       </c>
-      <c r="W5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6" t="n">
+      <c r="X5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6" t="n">
         <v>397650</v>
       </c>
     </row>
@@ -887,48 +892,48 @@
       <c r="E6" t="n">
         <v>795</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>CORIA BUSTOS JULIETA ISABEL</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00-39955559-0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="O6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="n">
+      <c r="Q6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="T6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6" t="n">
         <v>443106</v>
       </c>
-      <c r="W6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6" t="n">
+      <c r="X6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6" t="n">
         <v>443106</v>
       </c>
     </row>
@@ -954,48 +959,48 @@
       <c r="E7" t="n">
         <v>796</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>GOMEZ CINTHYA NATALI</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>00-36032037-0</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="O7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="n">
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="T7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="n">
         <v>325278</v>
       </c>
-      <c r="W7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6" t="n">
+      <c r="X7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6" t="n">
         <v>325278</v>
       </c>
     </row>
@@ -1021,48 +1026,48 @@
       <c r="E8" t="n">
         <v>799</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>BOTTERO FACUNDO ADRIAN</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>00-37872089-0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="O8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="Q8" s="6" t="n">
         <v>7438016.52</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="R8" s="7" t="n">
         <v>21</v>
-      </c>
-      <c r="R8" s="6" t="n">
-        <v>1561983.47</v>
       </c>
       <c r="S8" s="6" t="n">
         <v>1561983.47</v>
       </c>
-      <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6" t="n">
+      <c r="T8" s="6" t="n">
+        <v>1561983.47</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6" t="n">
         <v>8999999.99</v>
       </c>
     </row>
@@ -1088,48 +1093,48 @@
       <c r="E9" t="n">
         <v>130</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>SANAMI SRL</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>30712074597</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="O9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="Q9" s="6" t="n">
         <v>14979000</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="R9" s="7" t="n">
         <v>21</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>3145590</v>
       </c>
       <c r="S9" s="6" t="n">
         <v>3145590</v>
       </c>
-      <c r="U9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6" t="n">
+      <c r="T9" s="6" t="n">
+        <v>3145590</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6" t="n">
         <v>18124590</v>
       </c>
     </row>
@@ -1155,48 +1160,48 @@
       <c r="E10" t="n">
         <v>800</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>BOLIS GUSTAVO DANIEL</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>00-25894021-0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>CF</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="O10" s="6" t="n">
         <v>1403</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="Q10" s="6" t="n">
         <v>15073565.43</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="R10" s="7" t="n">
         <v>21</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>3165448.6</v>
       </c>
       <c r="S10" s="6" t="n">
         <v>3165448.6</v>
       </c>
-      <c r="U10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6" t="n">
+      <c r="T10" s="6" t="n">
+        <v>3165448.6</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6" t="n">
         <v>18239014.03</v>
       </c>
     </row>
@@ -1222,48 +1227,48 @@
       <c r="E11" t="n">
         <v>131</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>BUSTINZA GOMA S.A.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>33708319479</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="O11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="Q11" s="6" t="n">
         <v>426500</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="R11" s="7" t="n">
         <v>21</v>
-      </c>
-      <c r="R11" s="6" t="n">
-        <v>89565</v>
       </c>
       <c r="S11" s="6" t="n">
         <v>89565</v>
       </c>
-      <c r="U11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6" t="n">
+      <c r="T11" s="6" t="n">
+        <v>89565</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6" t="n">
         <v>516065</v>
       </c>
     </row>
